--- a/medicine/Psychotrope/Vieux_Bohan/Vieux_Bohan.xlsx
+++ b/medicine/Psychotrope/Vieux_Bohan/Vieux_Bohan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Vieux Bohan est un tabac d'origine belge cultivé dans la vallée de la Semois[1]. De bonne qualité, il fit l'objet de contrebande vers la France où le tabac était lourdement taxé au XIXe siècle. De là vient l'expression « Fume, c'est du Belge »[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Vieux Bohan est un tabac d'origine belge cultivé dans la vallée de la Semois. De bonne qualité, il fit l'objet de contrebande vers la France où le tabac était lourdement taxé au XIXe siècle. De là vient l'expression « Fume, c'est du Belge ».
 </t>
         </is>
       </c>
